--- a/Nevasa/InformeDeudaPrivada/20250127/20250127_informe_deuda_privada.xlsx
+++ b/Nevasa/InformeDeudaPrivada/20250127/20250127_informe_deuda_privada.xlsx
@@ -500,10 +500,10 @@
         <v>17292.0347</v>
       </c>
       <c r="E2" t="n">
-        <v>289.1505</v>
+        <v>115.6602</v>
       </c>
       <c r="F2" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>

--- a/Nevasa/InformeDeudaPrivada/20250127/20250127_informe_deuda_privada.xlsx
+++ b/Nevasa/InformeDeudaPrivada/20250127/20250127_informe_deuda_privada.xlsx
@@ -497,25 +497,25 @@
         <v>45684</v>
       </c>
       <c r="D2" t="n">
-        <v>17292.0347</v>
+        <v>1309.43</v>
       </c>
       <c r="E2" t="n">
-        <v>115.6602</v>
+        <v>15274</v>
       </c>
       <c r="F2" t="n">
-        <v>2000000</v>
+        <v>20000234</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FMBCICOMAP</t>
+          <t>CFINVSDPR</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
     </row>
